--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Gpc4.xlsx
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N2">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O2">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P2">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q2">
-        <v>2.439048263237111</v>
+        <v>7.050164343334</v>
       </c>
       <c r="R2">
-        <v>21.951434369134</v>
+        <v>63.451479090006</v>
       </c>
       <c r="S2">
-        <v>0.003879805928284577</v>
+        <v>0.008531166427586771</v>
       </c>
       <c r="T2">
-        <v>0.003879805928284577</v>
+        <v>0.008531166427586773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>30.248441</v>
       </c>
       <c r="N3">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O3">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P3">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q3">
-        <v>6.508688126547667</v>
+        <v>9.473176503938999</v>
       </c>
       <c r="R3">
-        <v>58.578193138929</v>
+        <v>85.258588535451</v>
       </c>
       <c r="S3">
-        <v>0.01035340184093773</v>
+        <v>0.0114631718378908</v>
       </c>
       <c r="T3">
-        <v>0.01035340184093773</v>
+        <v>0.0114631718378908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N4">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O4">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P4">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q4">
-        <v>3.257752890924889</v>
+        <v>5.83556765607</v>
       </c>
       <c r="R4">
-        <v>29.319776018324</v>
+        <v>52.52010890463</v>
       </c>
       <c r="S4">
-        <v>0.005182123359183345</v>
+        <v>0.007061423883039985</v>
       </c>
       <c r="T4">
-        <v>0.005182123359183345</v>
+        <v>0.007061423883039985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N5">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O5">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P5">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q5">
-        <v>0.02738172288922222</v>
+        <v>0.015605605177</v>
       </c>
       <c r="R5">
-        <v>0.246435506003</v>
+        <v>0.140450446593</v>
       </c>
       <c r="S5">
-        <v>4.355623969951849E-05</v>
+        <v>1.888381723953375E-05</v>
       </c>
       <c r="T5">
-        <v>4.355623969951848E-05</v>
+        <v>1.888381723953375E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N6">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O6">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P6">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q6">
-        <v>91.55662200843912</v>
+        <v>181.8303776144302</v>
       </c>
       <c r="R6">
-        <v>824.0095980759521</v>
+        <v>1636.473398529872</v>
       </c>
       <c r="S6">
-        <v>0.1456395636757925</v>
+        <v>0.2200268160395936</v>
       </c>
       <c r="T6">
-        <v>0.1456395636757925</v>
+        <v>0.2200268160395936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>30.248441</v>
       </c>
       <c r="N7">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O7">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P7">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q7">
         <v>244.3221430076347</v>
@@ -883,10 +883,10 @@
         <v>2198.899287068712</v>
       </c>
       <c r="S7">
-        <v>0.3886444205061069</v>
+        <v>0.2956459966658172</v>
       </c>
       <c r="T7">
-        <v>0.3886444205061069</v>
+        <v>0.2956459966658173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N8">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O8">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P8">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q8">
-        <v>122.2890315566969</v>
+        <v>150.50478525384</v>
       </c>
       <c r="R8">
-        <v>1100.601284010272</v>
+        <v>1354.54306728456</v>
       </c>
       <c r="S8">
-        <v>0.1945257569311691</v>
+        <v>0.1821207717466521</v>
       </c>
       <c r="T8">
-        <v>0.1945257569311691</v>
+        <v>0.1821207717466521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N9">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O9">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P9">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q9">
-        <v>1.027850940998222</v>
+        <v>0.4024832534462223</v>
       </c>
       <c r="R9">
-        <v>9.250658468984</v>
+        <v>3.622349281016</v>
       </c>
       <c r="S9">
-        <v>0.001635007488119601</v>
+        <v>0.0004870314296592051</v>
       </c>
       <c r="T9">
-        <v>0.001635007488119601</v>
+        <v>0.0004870314296592052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N10">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O10">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P10">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q10">
-        <v>25.46302108569111</v>
+        <v>65.23292805451179</v>
       </c>
       <c r="R10">
-        <v>229.16718977122</v>
+        <v>587.096352490606</v>
       </c>
       <c r="S10">
-        <v>0.04050415141403686</v>
+        <v>0.07893616924235571</v>
       </c>
       <c r="T10">
-        <v>0.04050415141403686</v>
+        <v>0.07893616924235571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>30.248441</v>
       </c>
       <c r="N11">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O11">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P11">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q11">
-        <v>67.94898875289668</v>
+        <v>87.65228883117234</v>
       </c>
       <c r="R11">
-        <v>611.5408987760701</v>
+        <v>788.8705994805509</v>
       </c>
       <c r="S11">
-        <v>0.1080867867020153</v>
+        <v>0.1060650826508273</v>
       </c>
       <c r="T11">
-        <v>0.1080867867020153</v>
+        <v>0.1060650826508273</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N12">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O12">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P12">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q12">
-        <v>34.0100816387689</v>
+        <v>53.99465126307</v>
       </c>
       <c r="R12">
-        <v>306.09073474892</v>
+        <v>485.95186136763</v>
       </c>
       <c r="S12">
-        <v>0.05410000218216685</v>
+        <v>0.06533710899382023</v>
       </c>
       <c r="T12">
-        <v>0.05410000218216685</v>
+        <v>0.06533710899382021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N13">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O13">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P13">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q13">
-        <v>0.2858579708322223</v>
+        <v>0.1443937006547778</v>
       </c>
       <c r="R13">
-        <v>2.57272173749</v>
+        <v>1.299543305893</v>
       </c>
       <c r="S13">
-        <v>0.0004547156637279045</v>
+        <v>0.0001747259540901025</v>
       </c>
       <c r="T13">
-        <v>0.0004547156637279044</v>
+        <v>0.0001747259540901025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>11.33521933333333</v>
+        <v>22.51161266666667</v>
       </c>
       <c r="N14">
-        <v>34.005658</v>
+        <v>67.53483800000001</v>
       </c>
       <c r="O14">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="P14">
-        <v>0.1993847774998647</v>
+        <v>0.3150979864474181</v>
       </c>
       <c r="Q14">
-        <v>5.884973832602667</v>
+        <v>6.283816521064444</v>
       </c>
       <c r="R14">
-        <v>52.964764493424</v>
+        <v>56.55434868958</v>
       </c>
       <c r="S14">
-        <v>0.009361256481750797</v>
+        <v>0.007603834737881997</v>
       </c>
       <c r="T14">
-        <v>0.009361256481750797</v>
+        <v>0.007603834737881999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>30.248441</v>
       </c>
       <c r="N15">
-        <v>90.74532300000001</v>
+        <v>90.745323</v>
       </c>
       <c r="O15">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="P15">
-        <v>0.5320654590923768</v>
+        <v>0.4233913844114141</v>
       </c>
       <c r="Q15">
-        <v>15.704264604616</v>
+        <v>8.443448992603333</v>
       </c>
       <c r="R15">
-        <v>141.338381441544</v>
+        <v>75.99104093343</v>
       </c>
       <c r="S15">
-        <v>0.0249808500433169</v>
+        <v>0.0102171332568788</v>
       </c>
       <c r="T15">
-        <v>0.0249808500433169</v>
+        <v>0.0102171332568788</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.14006266666667</v>
+        <v>18.63333</v>
       </c>
       <c r="N16">
-        <v>45.420188</v>
+        <v>55.89999</v>
       </c>
       <c r="O16">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="P16">
-        <v>0.2663113908391957</v>
+        <v>0.2608131567803688</v>
       </c>
       <c r="Q16">
-        <v>7.860357175029333</v>
+        <v>5.201245625099999</v>
       </c>
       <c r="R16">
-        <v>70.74321457526399</v>
+        <v>46.8112106259</v>
       </c>
       <c r="S16">
-        <v>0.0125035083666765</v>
+        <v>0.006293852156856529</v>
       </c>
       <c r="T16">
-        <v>0.0125035083666765</v>
+        <v>0.006293852156856529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1272536666666667</v>
+        <v>0.04982966666666667</v>
       </c>
       <c r="N17">
-        <v>0.381761</v>
+        <v>0.149489</v>
       </c>
       <c r="O17">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="P17">
-        <v>0.002238372568562733</v>
+        <v>0.000697472360799001</v>
       </c>
       <c r="Q17">
-        <v>0.06606704964533333</v>
+        <v>0.01390928705444444</v>
       </c>
       <c r="R17">
-        <v>0.5946034468079999</v>
+        <v>0.12518358349</v>
       </c>
       <c r="S17">
-        <v>0.0001050931770157092</v>
+        <v>1.683115981015964E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001050931770157091</v>
+        <v>1.683115981015964E-05</v>
       </c>
     </row>
   </sheetData>
